--- a/July'21/31.07.2021/HD Capital Statement July-2021.xlsx
+++ b/July'21/31.07.2021/HD Capital Statement July-2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t xml:space="preserve">Total Earnings </t>
   </si>
@@ -128,16 +128,19 @@
     <t>G.Total Capital ( 31 July-2021 Closing)</t>
   </si>
   <si>
-    <t>Salary soho</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
     <t>Eid Bonus+Salary July-2021</t>
   </si>
   <si>
     <t>Capital July-2021</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>DD Profit July''21</t>
+  </si>
+  <si>
+    <t>Short July''21</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,13 +686,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,6 +745,28 @@
     <xf numFmtId="2" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,7 +836,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1138,43 +1156,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1192,8 +1210,8 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="16"/>
@@ -1404,11 +1422,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
@@ -1434,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1445,19 +1463,23 @@
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="75"/>
+      <c r="B1" s="81"/>
     </row>
     <row r="2" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="77"/>
+      <c r="A2" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="83"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
@@ -1468,7 +1490,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="32">
@@ -1476,155 +1498,196 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="84"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="57">
         <v>75019.823999999993</v>
       </c>
+      <c r="C6" s="59">
+        <v>76037</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="55">
+        <f>B6-C6</f>
+        <v>-1017.1760000000068</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="58">
         <v>61200</v>
       </c>
+      <c r="C7" s="59">
+        <v>79200</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="38">
         <f>B6+B7</f>
         <v>136219.82399999999</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="42"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="43">
+      <c r="B11" s="41">
         <v>52015</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="43">
+      <c r="B12" s="41">
         <v>48000</v>
       </c>
-      <c r="D12" s="80">
-        <f>36000+B12+B11</f>
-        <v>136015</v>
-      </c>
-      <c r="F12" s="80">
-        <f>B9-D12</f>
-        <v>204.82399999999325</v>
-      </c>
+      <c r="D12" s="55"/>
+      <c r="F12" s="55"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="45"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="38">
         <f>B11+B12</f>
         <v>100015</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
       <c r="C15" s="10"/>
+      <c r="E15">
+        <v>1017</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="47">
         <f>B9-B14</f>
         <v>36204.823999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="56"/>
-    </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="E16" s="56">
+        <v>36204.823999999993</v>
+      </c>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="54"/>
+      <c r="E17" s="56">
+        <v>18000</v>
+      </c>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="43">
         <f>B4+B16</f>
         <v>2036204.824</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="E18" s="60">
+        <f>SUM(E16:E17)</f>
+        <v>54204.823999999993</v>
+      </c>
+      <c r="F18" s="60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="73"/>
-    </row>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
+      <c r="B21" s="79"/>
+      <c r="E21">
+        <f>E18+E15</f>
+        <v>55221.823999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22" s="52">
         <v>28000</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="E22" s="55">
+        <f>B16</f>
+        <v>36204.823999999993</v>
+      </c>
+      <c r="G22" s="62">
+        <f>E21-B16</f>
+        <v>19017</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="52">
         <v>20000</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
+      <c r="E23" s="55">
+        <f>E21-E22</f>
+        <v>19017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="52">
         <v>18400</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="51" t="s">
+    <row r="25" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="50">
         <f>B24+B23+B22</f>
         <v>66400</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
+    <row r="26" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
